--- a/output/google_maps_data_Restoran_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Restoran_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0811-2630-310</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>-7.866391</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.866391</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.169459</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+BU+HARTIN+Resto+%26+Music/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb14989207b3:0x99deed1a37f02f76!8m2!3d-7.8663906!4d110.1694585!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzrpdz4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+BU+HARTIN+Resto+%26+Music/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb14989207b3:0x99deed1a37f02f76!8m2!3d-7.8663906!4d110.1694585!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzrpdz4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -552,25 +546,24 @@
           <t>0812-1134-3394</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.715176</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.715176</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.217395</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kripala+Dekso+Coffee+and+Resto/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af3f86a4184e9:0x3f69a67abd3c5e62!8m2!3d-7.7151759!4d110.2173953!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rgrmjrsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kripala+Dekso+Coffee+and+Resto/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af3f86a4184e9:0x3f69a67abd3c5e62!8m2!3d-7.7151759!4d110.2173953!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rgrmjrsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -593,25 +586,24 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.797976</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.797976</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.235134</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/La+Barka+Resto/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af134fc196475:0x66e7c0a2bd4fffc6!8m2!3d-7.797976!4d110.235134!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11sl28fjhf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/La+Barka+Resto/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af134fc196475:0x66e7c0a2bd4fffc6!8m2!3d-7.797976!4d110.235134!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11sl28fjhf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -638,25 +630,24 @@
           <t>0822-2673-0823</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.750206</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.750206</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.191365</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kopi+Ampirono/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af13cb95e6be7:0x120a7b620a62627c!8m2!3d-7.7502057!4d110.1913654!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h7ks1f6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kopi+Ampirono/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af13cb95e6be7:0x120a7b620a62627c!8m2!3d-7.7502057!4d110.1913654!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h7ks1f6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -679,25 +670,24 @@
           <t>0812-2775-3352</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.761952</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.761952</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.120656</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kedai+Kopi+Pari/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7aee369d53ef05:0x7d09b4b354a9e77a!8m2!3d-7.7619524!4d110.1206561!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFnRyYWRpdGlvbmFsX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gfb39m72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kedai+Kopi+Pari/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7aee369d53ef05:0x7d09b4b354a9e77a!8m2!3d-7.7619524!4d110.1206561!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFnRyYWRpdGlvbmFsX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gfb39m72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -720,25 +710,24 @@
           <t>(0274) 2890165</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>-7.858826</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.858826</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.149434</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dapur+SEMAR/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb3033cbcf5d:0x38d025a32f962b62!8m2!3d-7.8588264!4d110.1494337!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11bx56d83d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dapur+SEMAR/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb3033cbcf5d:0x38d025a32f962b62!8m2!3d-7.8588264!4d110.1494337!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11bx56d83d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -761,25 +750,24 @@
           <t>0813-9089-3887</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.863508</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.863508</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.151911</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pondok+Makan+Bu+Hartin/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb62aacbd4f1:0xa21f216a52de2e86!8m2!3d-7.8635083!4d110.1519114!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F11hzkp_qfj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pondok+Makan+Bu+Hartin/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb62aacbd4f1:0xa21f216a52de2e86!8m2!3d-7.8635083!4d110.1519114!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F11hzkp_qfj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -806,25 +794,24 @@
           <t>0813-2588-6519</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.88637</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.88637</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.060027</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JOGLO+SAERAH+RESTO/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae5c8a70a3fcf:0xc3a875d1d2c6eb91!8m2!3d-7.8863704!4d110.0600266!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11lsx3npgg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JOGLO+SAERAH+RESTO/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae5c8a70a3fcf:0xc3a875d1d2c6eb91!8m2!3d-7.8863704!4d110.0600266!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11lsx3npgg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -851,25 +838,24 @@
           <t>0811-2931-212</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.880182</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.880182</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.153314</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terraskota+Coffee+%26+Kitchen/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbfa87304a3f:0x8ee4028978271ccf!8m2!3d-7.8801823!4d110.1533135!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11q23sgq_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terraskota+Coffee+%26+Kitchen/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbfa87304a3f:0x8ee4028978271ccf!8m2!3d-7.8801823!4d110.1533135!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11q23sgq_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -892,25 +878,24 @@
           <t>0821-3701-7827</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.850894</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.850894</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.164268</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soto+Bathok+Wulung/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb1f617aa19b:0x50bd14261e55d1eb!8m2!3d-7.8508938!4d110.164268!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFHNvdG9fYXlhbV9yZXN0YXVyYW504AEA!16s%2Fg%2F11c1qblmx3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soto+Bathok+Wulung/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb1f617aa19b:0x50bd14261e55d1eb!8m2!3d-7.8508938!4d110.164268!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFHNvdG9fYXlhbV9yZXN0YXVyYW504AEA!16s%2Fg%2F11c1qblmx3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -933,25 +918,24 @@
           <t>0813-2454-1635</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.768619</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.768619</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.196283</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PUNCAK+SAKA/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af152b36f9c43:0x6e6f2cddcb4f3124!8m2!3d-7.7686192!4d110.1962829!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGFzaWFuX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11rjw9rlts?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PUNCAK+SAKA/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af152b36f9c43:0x6e6f2cddcb4f3124!8m2!3d-7.7686192!4d110.1962829!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGFzaWFuX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11rjw9rlts?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -978,25 +962,24 @@
           <t>0821-4666-6167</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.886654</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.886654</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.055524</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yu+Djum+167+Resto+%26+Coffee/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae5f4bb8201e9:0xdf6025ce9a92106f!8m2!3d-7.8866541!4d110.0555241!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11pwj3g56f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yu+Djum+167+Resto+%26+Coffee/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae5f4bb8201e9:0xdf6025ce9a92106f!8m2!3d-7.8866541!4d110.0555241!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11pwj3g56f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1023,25 +1006,24 @@
           <t>0889-8887-8889</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.900595</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.900595</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.166396</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OTENTIK+Resto+%26+Cafe/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afd570e1f4acf:0x8bfcfdf2b41f6869!8m2!3d-7.9005951!4d110.1663955!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11ry3shtw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OTENTIK+Resto+%26+Cafe/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afd570e1f4acf:0x8bfcfdf2b41f6869!8m2!3d-7.9005951!4d110.1663955!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11ry3shtw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1064,25 +1046,24 @@
           <t>0851-9861-3532</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.896545</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.896545</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.115764</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kopi+Jolotundo/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae33367a1e967:0xc89c6951fd08574e!8m2!3d-7.8965451!4d110.1157638!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rdcfg18q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kopi+Jolotundo/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae33367a1e967:0xc89c6951fd08574e!8m2!3d-7.8965451!4d110.1157638!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rdcfg18q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -1105,25 +1086,24 @@
           <t>0812-2751-0573</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>-7.784152</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.784152</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.199494</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OMAH+CANTRIK/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af15e0bf7e2e3:0xe62ebb8f21e4e204!8m2!3d-7.7841521!4d110.1994942!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11jp0s7tpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OMAH+CANTRIK/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af15e0bf7e2e3:0xe62ebb8f21e4e204!8m2!3d-7.7841521!4d110.1994942!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11jp0s7tpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1146,25 +1126,24 @@
           <t>0823-2546-9609</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>-7.745625</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.745625</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.181367</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/New+Dapoer+Khayangan/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af13cdd082457:0x37f9d9c648c1bb51!8m2!3d-7.7456248!4d110.181367!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11nfzw6kn6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/New+Dapoer+Khayangan/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af13cdd082457:0x37f9d9c648c1bb51!8m2!3d-7.7456248!4d110.181367!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11nfzw6kn6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1187,25 +1166,24 @@
           <t>0813-9371-3846</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.860529</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.860529</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.158957</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Resto+Simpang+Tiga/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb8de907594f:0x31760b53a02a78ee!8m2!3d-7.8605292!4d110.1589569!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h4ycqn7f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Resto+Simpang+Tiga/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb8de907594f:0x31760b53a02a78ee!8m2!3d-7.8605292!4d110.1589569!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h4ycqn7f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1232,25 +1210,24 @@
           <t>0877-7728-2647</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.714892</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.714892</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.216656</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TERAS+MENOREH/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af3a7caba7d63:0xeb89df60dfd198d9!8m2!3d-7.7148918!4d110.2166556!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rbkt6ns8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TERAS+MENOREH/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af3a7caba7d63:0xeb89df60dfd198d9!8m2!3d-7.7148918!4d110.2166556!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rbkt6ns8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -1273,25 +1250,24 @@
           <t>0856-2575-039</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>-7.865822</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.865822</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.158572</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Waroeng+Spesial+Sambal+Kulon+Progo/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb2719325635:0xd4280865411d5949!8m2!3d-7.8658224!4d110.1585718!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rv1sqmpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Waroeng+Spesial+Sambal+Kulon+Progo/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb2719325635:0xd4280865411d5949!8m2!3d-7.8658224!4d110.1585718!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rv1sqmpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -1318,25 +1294,24 @@
           <t>0877-2234-5101</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>-7.749541</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.749541</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.206065</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Menoreh+View/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1248bb0d5c9:0xa84f551f82a5e0d9!8m2!3d-7.7495409!4d110.2060647!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11llcv8yn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Menoreh+View/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1248bb0d5c9:0xa84f551f82a5e0d9!8m2!3d-7.7495409!4d110.2060647!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11llcv8yn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -1359,25 +1334,24 @@
           <t>0812-2823-6221</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>-7.852937</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.852937</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.150379</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Resto+KAMPUNG-KU+PUNUKAN+Tradisional+%26+Seafood/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb64de48381d:0xb58f0abf8535d2ba!8m2!3d-7.8529372!4d110.1503794!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11sb4_fz40?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Resto+KAMPUNG-KU+PUNUKAN+Tradisional+%26+Seafood/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb64de48381d:0xb58f0abf8535d2ba!8m2!3d-7.8529372!4d110.1503794!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11sb4_fz40?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -1400,25 +1374,24 @@
           <t>(0274) 774376</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.4</v>
+        <v>-7.861636</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.861636</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.155336</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+%22Bu+Hartin%22+Driyan/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb3bb4639fbf:0x4a9b4e8b6fde844e!8m2!3d-7.8616358!4d110.1553359!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzxjj44w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+%22Bu+Hartin%22+Driyan/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb3bb4639fbf:0x4a9b4e8b6fde844e!8m2!3d-7.8616358!4d110.1553359!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzxjj44w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1441,25 +1414,24 @@
           <t>0813-9102-5207</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.752379</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.752379</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.205545</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Joglo+Menoreh+Resto/@-7.8663906,109.8810674,11z/data=!4m14!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m9!1s0x2e7af1180148154f:0x18659a4ac6960c57!5m2!4m1!1i2!8m2!3d-7.7523794!4d110.2055448!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11n0zp7s6k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Joglo+Menoreh+Resto/@-7.8663906,109.8810674,11z/data=!4m14!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m9!1s0x2e7af1180148154f:0x18659a4ac6960c57!5m2!4m1!1i2!8m2!3d-7.7523794!4d110.2055448!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11n0zp7s6k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -1483,25 +1455,24 @@
           <t>0813-2877-2633</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.747566</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.747566</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.212717</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sate+Kambing+Mbah+Margo+1/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae4aa3ade1593:0x288f5ce4e6d7d3ea!8m2!3d-7.7475657!4d110.2127168!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEHNhdGF5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pzxqcy83?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sate+Kambing+Mbah+Margo+1/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae4aa3ade1593:0x288f5ce4e6d7d3ea!8m2!3d-7.7475657!4d110.2127168!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEHNhdGF5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pzxqcy83?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1524,25 +1495,24 @@
           <t>0812-2990-4407</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>-7.869908</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.869908</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.187146</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Nayan/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afba947e7fd91:0x5f441a84e1db7722!8m2!3d-7.8699078!4d110.1871457!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11qfp9qg18?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Nayan/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afba947e7fd91:0x5f441a84e1db7722!8m2!3d-7.8699078!4d110.1871457!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11qfp9qg18?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1569,25 +1539,24 @@
           <t>0811-2644-418</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>-7.891335</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.891335</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.124219</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+Bu+Hartin+Toyan+Wates/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae358b52a728f:0x1a20a27fa0f344dd!8m2!3d-7.8913347!4d110.1242193!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzrvhyn5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+Bu+Hartin+Toyan+Wates/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae358b52a728f:0x1a20a27fa0f344dd!8m2!3d-7.8913347!4d110.1242193!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzrvhyn5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1610,25 +1579,24 @@
           <t>0811-2650-203</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.6</v>
+        <v>-7.872279</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.872279</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.197659</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bebakaran+Masden+-+Daharndeso/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb83a3e4c46b:0xe60941942fbfda72!8m2!3d-7.8722787!4d110.1976587!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h4zpypx5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bebakaran+Masden+-+Daharndeso/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb83a3e4c46b:0xe60941942fbfda72!8m2!3d-7.8722787!4d110.1976587!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h4zpypx5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1655,25 +1623,24 @@
           <t>0821-3728-8085</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>-7.797922</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.797922</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.189152</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AYAM+PRESTO+MBAH+TEDJOKU/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1c20103c195:0xe85c702da9a6a1a4!8m2!3d-7.7979224!4d110.1891522!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rjq84jw2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/AYAM+PRESTO+MBAH+TEDJOKU/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1c20103c195:0xe85c702da9a6a1a4!8m2!3d-7.7979224!4d110.1891522!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11rjq84jw2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1692,25 +1659,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>-7.822601</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.822601</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.183399</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Makan+Mbah+Kebo/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afa8b987204fd:0x2f605625087f0d59!8m2!3d-7.8226007!4d110.1833989!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c1qx67v_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Makan+Mbah+Kebo/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afa8b987204fd:0x2f605625087f0d59!8m2!3d-7.8226007!4d110.1833989!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c1qx67v_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1737,25 +1703,24 @@
           <t>0899-5148-287</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.2</v>
+        <v>-7.843374</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.843374</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.167854</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%F0%9D%97%B2%F0%9D%97%BB%F0%9D%97%B1%F0%9D%98%86%F0%9D%98%80%F0%9D%98%81%F0%9D%97%B2%F0%9D%97%AE%F0%9D%97%B8+-+%F0%9D%93%A2%F0%9D%93%BD%F0%9D%93%AE%F0%9D%93%AA%F0%9D%93%B4%F0%9D%93%B7%F0%9D%94%82%F0%9D%93%AA+%F0%9D%93%9A%F0%9D%93%BE%F0%9D%93%B5%F0%9D%93%B8%F0%9D%93%B7+%F0%9D%93%9F%F0%9D%93%BB%F0%9D%93%B8%F0%9D%93%B0%F0%9D%93%B8/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae1179bf4a5:0x8cf5b1e45b495bbb!8m2!3d-7.8433739!4d110.1678541!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC3N0ZWFrX2hvdXNl4AEA!16s%2Fg%2F11c0xk6q12?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%F0%9D%97%B2%F0%9D%97%BB%F0%9D%97%B1%F0%9D%98%86%F0%9D%98%80%F0%9D%98%81%F0%9D%97%B2%F0%9D%97%AE%F0%9D%97%B8+-+%F0%9D%93%A2%F0%9D%93%BD%F0%9D%93%AE%F0%9D%93%AA%F0%9D%93%B4%F0%9D%93%B7%F0%9D%94%82%F0%9D%93%AA+%F0%9D%93%9A%F0%9D%93%BE%F0%9D%93%B5%F0%9D%93%B8%F0%9D%93%B7+%F0%9D%93%9F%F0%9D%93%BB%F0%9D%93%B8%F0%9D%93%B0%F0%9D%93%B8/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae1179bf4a5:0x8cf5b1e45b495bbb!8m2!3d-7.8433739!4d110.1678541!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC3N0ZWFrX2hvdXNl4AEA!16s%2Fg%2F11c0xk6q12?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1778,25 +1743,24 @@
           <t>0857-4706-7888</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.2</v>
+        <v>-7.81946</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.81946</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.120916</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Top+View+Resto/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae543412df531:0x1daf21ab0b5d6ed3!8m2!3d-7.8194604!4d110.1209156!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11dfjb5xpq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Top+View+Resto/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae543412df531:0x1daf21ab0b5d6ed3!8m2!3d-7.8194604!4d110.1209156!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11dfjb5xpq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -1819,25 +1783,24 @@
           <t>0813-1945-3223</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.4</v>
+        <v>-7.866493</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.866493</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.178215</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+Bugisan+Kulon+Progo/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb0d2528dd2f:0xb904254053d37921!8m2!3d-7.8664931!4d110.1782153!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F11dzw6gxy1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+Bugisan+Kulon+Progo/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb0d2528dd2f:0xb904254053d37921!8m2!3d-7.8664931!4d110.1782153!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F11dzw6gxy1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1860,25 +1823,24 @@
           <t>0822-2064-7498</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>-7.753695</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.753695</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.209825</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Makan+%22IWAK+PROGO%22/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af10a995b4cb7:0x6e735e3ad3dc974f!8m2!3d-7.7536949!4d110.2098253!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h1_14ntl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Makan+%22IWAK+PROGO%22/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af10a995b4cb7:0x6e735e3ad3dc974f!8m2!3d-7.7536949!4d110.2098253!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h1_14ntl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1897,25 +1859,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.3</v>
+        <v>-7.859744</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.859744</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.153963</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Makan+Gule+Sawah/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb3aec742f33:0xcd2c6aacac19c69a!8m2!3d-7.8597444!4d110.1539628!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEHNhdGF5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11bxfs3_r8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Makan+Gule+Sawah/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb3aec742f33:0xcd2c6aacac19c69a!8m2!3d-7.8597444!4d110.1539628!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEHNhdGF5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11bxfs3_r8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1938,25 +1899,24 @@
           <t>0812-2735-4334</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.853204</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.853204</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.154303</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pecel+Lele+Thole+Cabang+Utama/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb25d9a28565:0x1105f4ee76720db2!8m2!3d-7.8532037!4d110.1543027!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFXBlY2VsX2xlbGVfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c549n4cq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pecel+Lele+Thole+Cabang+Utama/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb25d9a28565:0x1105f4ee76720db2!8m2!3d-7.8532037!4d110.1543027!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFXBlY2VsX2xlbGVfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c549n4cq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1983,25 +1943,24 @@
           <t>0819-0422-1889</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>-7.645086</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.645086</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.145562</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tumpeng+Menoreh/@-7.6450862,109.8571709,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af322f55c7e07:0x5aa0803d9844e1d7!8m2!3d-7.6450862!4d110.145562!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11n374kh41?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tumpeng+Menoreh/@-7.6450862,109.8571709,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af322f55c7e07:0x5aa0803d9844e1d7!8m2!3d-7.6450862!4d110.145562!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11n374kh41?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2024,25 +1983,24 @@
           <t>0823-2482-3538</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.9</v>
+        <v>-7.883755</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.883755</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.119222</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CHANNA+FOOD+RESTO/@-7.6450862,109.8571709,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae5006712ab6d:0xb299e17e266d3297!8m2!3d-7.8837551!4d110.1192223!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFGZhc3RfZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11vx0xx0c6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CHANNA+FOOD+RESTO/@-7.6450862,109.8571709,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae5006712ab6d:0xb299e17e266d3297!8m2!3d-7.8837551!4d110.1192223!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFGZhc3RfZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11vx0xx0c6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2065,25 +2023,24 @@
           <t>0812-2895-6272</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>-7.838545</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.838545</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.220006</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mie+Ayam+Pak+Man/@-7.6450862,109.8571709,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afa3171c8b15d:0x8dcedbd46bebfc07!8m2!3d-7.8385449!4d110.220006!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11cn7fdqhq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mie+Ayam+Pak+Man/@-7.6450862,109.8571709,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afa3171c8b15d:0x8dcedbd46bebfc07!8m2!3d-7.8385449!4d110.220006!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11cn7fdqhq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -2106,25 +2063,24 @@
           <t>0815-4262-2750</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.7</v>
+        <v>-7.896272</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.896272</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.181409</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Tabon+Resto+%26+Outbound+Area/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afdea5e342f79:0x7bd3821bcf665596!8m2!3d-7.8962719!4d110.1814086!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11fn0ltsz8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Tabon+Resto+%26+Outbound+Area/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afdea5e342f79:0x7bd3821bcf665596!8m2!3d-7.8962719!4d110.1814086!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11fn0ltsz8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2151,25 +2107,24 @@
           <t>0877-0033-9676</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.4</v>
+        <v>-7.745656</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.745656</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.206017</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GEBLEK+PARI+(Asli+%26+Pertama)/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af11478863d8d:0x7c90847fd3a40a64!8m2!3d-7.745656!4d110.2060165!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEnRvdXJpc3RfYXR0cmFjdGlvbuABAA!16s%2Fg%2F11f0xxrt3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GEBLEK+PARI+(Asli+%26+Pertama)/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af11478863d8d:0x7c90847fd3a40a64!8m2!3d-7.745656!4d110.2060165!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEnRvdXJpc3RfYXR0cmFjdGlvbuABAA!16s%2Fg%2F11f0xxrt3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>5 menit lalu</t>
         </is>
@@ -2192,25 +2147,24 @@
           <t>0878-3831-7943</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.3</v>
+        <v>-7.852387</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.852387</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.16397</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+makan+Sedulur/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb1f56241bfd:0x9c99839888e0bdc1!8m2!3d-7.8523874!4d110.16397!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEWJydW5jaF9yZXN0YXVyYW504AEA!16s%2Fg%2F11csqd_bs0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+makan+Sedulur/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb1f56241bfd:0x9c99839888e0bdc1!8m2!3d-7.8523874!4d110.16397!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEWJydW5jaF9yZXN0YXVyYW504AEA!16s%2Fg%2F11csqd_bs0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2233,25 +2187,24 @@
           <t>(0274) 773880</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.1</v>
+        <v>-7.86681</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.86681</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.150169</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Saiyo+Sapta+Pesona/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb82347d6d51:0xab1128fd90a3bcfb!8m2!3d-7.8668096!4d110.1501693!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEXBhZGFuZ19yZXN0YXVyYW504AEA!16s%2Fg%2F1pzs84bvk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Saiyo+Sapta+Pesona/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb82347d6d51:0xab1128fd90a3bcfb!8m2!3d-7.8668096!4d110.1501693!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEXBhZGFuZ19yZXN0YXVyYW504AEA!16s%2Fg%2F1pzs84bvk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2274,25 +2227,24 @@
           <t>0811-2850-2929</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.3</v>
+        <v>-7.887154</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.887154</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.069555</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sego+Pulen/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae5000248299b:0xedfd979cc90c7ec7!8m2!3d-7.8871536!4d110.0695547!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11y2ytbjnx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sego+Pulen/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae5000248299b:0xedfd979cc90c7ec7!8m2!3d-7.8871536!4d110.0695547!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11y2ytbjnx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2319,25 +2271,24 @@
           <t>0878-4319-6105</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.6</v>
+        <v>-7.661939</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.661939</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.205599</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kopi+Menoreh+Pak+Rohmat/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af31679cb13b3:0x902c88b680de6723!8m2!3d-7.6619392!4d110.2055985!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11b7q81s8t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kopi+Menoreh+Pak+Rohmat/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af31679cb13b3:0x902c88b680de6723!8m2!3d-7.6619392!4d110.2055985!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11b7q81s8t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2356,25 +2307,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F46" t="n">
-        <v>3.9</v>
+        <v>-7.867318</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.867318</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.16448</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Nggirli/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb3fe81cafdd:0xa04c477d21832ac4!8m2!3d-7.8673182!4d110.1644801!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11c5x526jg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Nggirli/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb3fe81cafdd:0xa04c477d21832ac4!8m2!3d-7.8673182!4d110.1644801!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11c5x526jg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2401,25 +2351,24 @@
           <t>0851-5739-5545</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.6</v>
+        <v>-7.749885</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.749885</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.192322</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terraloka/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1aee2ee1881:0xf16b2326bc8738e3!8m2!3d-7.7498848!4d110.1923219!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBGNhZmXgAQA!16s%2Fg%2F11mw6rvbry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terraloka/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1aee2ee1881:0xf16b2326bc8738e3!8m2!3d-7.7498848!4d110.1923219!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBGNhZmXgAQA!16s%2Fg%2F11mw6rvbry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2438,25 +2387,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.6</v>
+        <v>-7.829969</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.829969</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.163552</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Tritis/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afac1da3fe5f3:0xc71d5d13a3880110!8m2!3d-7.8299686!4d110.1635515!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g8yfh2xy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Tritis/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afac1da3fe5f3:0xc71d5d13a3880110!8m2!3d-7.8299686!4d110.1635515!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g8yfh2xy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2479,25 +2427,24 @@
           <t>0896-6545-9383</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.8</v>
+        <v>-7.836342</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.836342</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.175987</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Mbah+Bangkit/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb845dfbd9a5:0x7acf2c214a916f4a!8m2!3d-7.8363424!4d110.1759867!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBWRpbmVy4AEA!16s%2Fg%2F11fwd8b2r3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Mbah+Bangkit/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb845dfbd9a5:0x7acf2c214a916f4a!8m2!3d-7.8363424!4d110.1759867!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBWRpbmVy4AEA!16s%2Fg%2F11fwd8b2r3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2520,25 +2467,24 @@
           <t>0813-2888-4900</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.6</v>
+        <v>-7.643872</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.643872</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.145561</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tumpeng+Ayu/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af3c087f2e08f:0xf82e219e0ec7da2c!8m2!3d-7.643872!4d110.1455607!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBWRpbmVy4AEA!16s%2Fg%2F11swxgzjvj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tumpeng+Ayu/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af3c087f2e08f:0xf82e219e0ec7da2c!8m2!3d-7.643872!4d110.1455607!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBWRpbmVy4AEA!16s%2Fg%2F11swxgzjvj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2565,25 +2511,24 @@
           <t>0812-2569-2586</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.5</v>
+        <v>-7.860249</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.860249</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.174133</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakso+Mie+Ayam+Pakde+Wonogiri/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb73dc3c555f:0x66bbdc2d4a0a5b15!8m2!3d-7.8602493!4d110.1741326!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gj19q1x8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakso+Mie+Ayam+Pakde+Wonogiri/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb73dc3c555f:0x66bbdc2d4a0a5b15!8m2!3d-7.8602493!4d110.1741326!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gj19q1x8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -2610,25 +2555,24 @@
           <t>0821-6000-3600</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.7</v>
+        <v>-7.724056</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.724056</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.231246</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Resto+Unagi+%26+Udang+Alam+Kreo/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1e3b5ddf541:0x36582bae52cedb97!8m2!3d-7.724056!4d110.2312456!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11qpy87bxq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Resto+Unagi+%26+Udang+Alam+Kreo/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1e3b5ddf541:0x36582bae52cedb97!8m2!3d-7.724056!4d110.2312456!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11qpy87bxq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>24 menit lalu</t>
         </is>
@@ -2651,25 +2595,24 @@
           <t>0895-3636-36138</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.837932</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.837932</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.174725</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TERAS+BUDHE/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbf00755cc9b:0x32ba6a561c23b917!8m2!3d-7.8379324!4d110.1747253!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFGZhc3RfZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11k9b3z289?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TERAS+BUDHE/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbf00755cc9b:0x32ba6a561c23b917!8m2!3d-7.8379324!4d110.1747253!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFGZhc3RfZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11k9b3z289?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2692,25 +2635,24 @@
           <t>0856-4753-9040</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.6</v>
+        <v>-7.854567</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.854567</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.154761</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tabebuya+Cafe/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbbec3aaeead:0xf78ae84dad13663b!8m2!3d-7.8545669!4d110.1547608!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBGNhZmXgAQA!16s%2Fg%2F11nfc9ztz4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2729,25 +2671,24 @@
           <t>0852-2860-5585</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>-7.846722</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.846722</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.172619</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gubug+Ndeso+Resto/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbc5d66ae33b:0x919684019529b41b!8m2!3d-7.8467217!4d110.1726187!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11j0_dbqpb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gubug+Ndeso+Resto/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbc5d66ae33b:0x919684019529b41b!8m2!3d-7.8467217!4d110.1726187!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11j0_dbqpb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2766,25 +2707,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.4</v>
+        <v>-7.833271</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.833271</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.180397</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soto+Bathok+Tunggal+Wulung/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afba9b80d33b5:0xecc937c2477379d0!8m2!3d-7.8332708!4d110.1803971!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdG9fcmVzdGF1cmFudOABAA!16s%2Fg%2F11g2xqczr7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soto+Bathok+Tunggal+Wulung/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afba9b80d33b5:0xecc937c2477379d0!8m2!3d-7.8332708!4d110.1803971!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdG9fcmVzdGF1cmFudOABAA!16s%2Fg%2F11g2xqczr7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2811,25 +2751,24 @@
           <t>0838-6972-0792</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.7</v>
+        <v>-7.845171</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.845171</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.165904</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soto+Gerabah+Asem+Kranji+Pengasih/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbe56be879f5:0x99a04e8a4ab9bfc5!8m2!3d-7.8451714!4d110.1659039!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdG9fcmVzdGF1cmFudOABAA!16s%2Fg%2F11fq2klgwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soto+Gerabah+Asem+Kranji+Pengasih/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbe56be879f5:0x99a04e8a4ab9bfc5!8m2!3d-7.8451714!4d110.1659039!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdG9fcmVzdGF1cmFudOABAA!16s%2Fg%2F11fq2klgwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2852,25 +2791,24 @@
           <t>0817-716-776</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.7</v>
+        <v>-7.647634</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.647634</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.181472</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KEDAI+KOPI+SUROLOYO/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af2d136ccca2f:0xa6b11c54a68a3c81!8m2!3d-7.6476338!4d110.1814724!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11c5zndqz0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KEDAI+KOPI+SUROLOYO/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af2d136ccca2f:0xa6b11c54a68a3c81!8m2!3d-7.6476338!4d110.1814724!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11c5zndqz0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2889,25 +2827,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.7</v>
+        <v>-7.841998</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.841998</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.164935</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soto+Gado-gado+%22NN%22/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae74d682a4d:0xb9546551fbb6c1db!8m2!3d-7.8419978!4d110.1649352!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEWJydW5jaF9yZXN0YXVyYW504AEA!16s%2Fg%2F11dxdh1g8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soto+Gado-gado+%22NN%22/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae74d682a4d:0xb9546551fbb6c1db!8m2!3d-7.8419978!4d110.1649352!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEWJydW5jaF9yZXN0YXVyYW504AEA!16s%2Fg%2F11dxdh1g8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2926,25 +2863,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.5</v>
+        <v>-7.835085</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.835085</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.17749</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakso+Goyang+Lidah+Pak+Wasit/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afaf06ab6ee8b:0x793af45cf6a311fa!8m2!3d-7.8350847!4d110.1774896!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c0rrq6cc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakso+Goyang+Lidah+Pak+Wasit/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afaf06ab6ee8b:0x793af45cf6a311fa!8m2!3d-7.8350847!4d110.1774896!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c0rrq6cc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2967,25 +2903,24 @@
           <t>0812-8183-4478</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.6</v>
+        <v>-7.834852</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.834852</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.162535</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mae+Damar/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb83aca4084d:0x58fe005829467c07!8m2!3d-7.8348521!4d110.1625346!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g4hqkl0j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mae+Damar/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb83aca4084d:0x58fe005829467c07!8m2!3d-7.8348521!4d110.1625346!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g4hqkl0j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3008,25 +2943,24 @@
           <t>0857-0028-3455</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.8</v>
+        <v>-7.842258</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.842258</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.164912</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+DALAN+ANYAR+%22+CAPCAY,+SEAFOOD%26BAKMI%22/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae0b28af337:0xa03880baf74451c0!8m2!3d-7.8422575!4d110.1649124!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBWRpbmVy4AEA!16s%2Fg%2F11f39p2xt4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+DALAN+ANYAR+%22+CAPCAY,+SEAFOOD%26BAKMI%22/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae0b28af337:0xa03880baf74451c0!8m2!3d-7.8422575!4d110.1649124!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBWRpbmVy4AEA!16s%2Fg%2F11f39p2xt4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3049,25 +2983,24 @@
           <t>0812-2886-3301</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.3</v>
+        <v>-7.837672</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.837672</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.174708</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mie+Ayam+Dan+Bakso+Pak+Sidi/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae54f9b8f87:0xc2bf2f96721a17f6!8m2!3d-7.837672!4d110.1747078!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11csrg13nl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mie+Ayam+Dan+Bakso+Pak+Sidi/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae54f9b8f87:0xc2bf2f96721a17f6!8m2!3d-7.837672!4d110.1747078!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11csrg13nl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3090,25 +3023,24 @@
           <t>0852-9285-4794</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.5</v>
+        <v>-7.857744</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.857744</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.156228</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakmi+Jawa+Pak+Sogol/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb24cea0dcab:0x7dfb73aa13dfab2b!8m2!3d-7.8577443!4d110.1562278!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11b75kjn3x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakmi+Jawa+Pak+Sogol/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb24cea0dcab:0x7dfb73aa13dfab2b!8m2!3d-7.8577443!4d110.1562278!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11b75kjn3x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3127,25 +3059,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.3</v>
+        <v>-7.83645</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.83645</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.173799</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Bakmi+Handayani/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afaef880e8a73:0xd1f50611a39697b4!8m2!3d-7.8364497!4d110.1737986!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11c6zxbvlx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Bakmi+Handayani/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afaef880e8a73:0xd1f50611a39697b4!8m2!3d-7.8364497!4d110.1737986!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11c6zxbvlx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3168,25 +3099,24 @@
           <t>0819-0997-6968</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>-7.821632</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.821632</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.160368</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warjan+Mbok+Ruby/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbf0d36beb71:0xb8a8f50fba4197a1!8m2!3d-7.8216322!4d110.1603677!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFGJyZWFrZmFzdF9yZXN0YXVyYW504AEA!16s%2Fg%2F11p3qgw0b4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warjan+Mbok+Ruby/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afbf0d36beb71:0xb8a8f50fba4197a1!8m2!3d-7.8216322!4d110.1603677!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBFGJyZWFrZmFzdF9yZXN0YXVyYW504AEA!16s%2Fg%2F11p3qgw0b4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3209,25 +3139,24 @@
           <t>0818-0277-2102</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.7</v>
+        <v>-7.845832</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.845832</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.168495</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Waroeng+Bakmi+Dan+Nasgor+Pak+GOENDUL/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb1e23d06f33:0xe903f2a69cc513b4!8m2!3d-7.8458323!4d110.1684951!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11csc9hc6q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Waroeng+Bakmi+Dan+Nasgor+Pak+GOENDUL/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb1e23d06f33:0xe903f2a69cc513b4!8m2!3d-7.8458323!4d110.1684951!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11csc9hc6q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -3246,21 +3175,20 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="n">
+      <c r="E68" t="n">
         <v>4.5</v>
       </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Makan+Mbak+Giri/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae35f793cfd13:0x2519186363f3788a!8m2!3d-7.8911852!4d110.119624!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11f0_fglvj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3275,21 +3203,20 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
+      <c r="E69" t="n">
         <v>4.5</v>
       </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bakmi+%26+Seafood+Loncamatan/@-7.6619392,109.9172074,11z/data=!4m13!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m8!1s0x2e7afb2169eff3e9:0x395875984370240a!8m2!3d-7.8419996!4d110.1681132!9m1!1b1!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11f5_l23d_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3303,16 +3230,15 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sop+ayam+pak+man+Klaten/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb0a40ef2353:0xe9b5479f34cf1d62!8m2!3d-7.8423445!4d110.1701442!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdXBfcmVzdGF1cmFudOABAA!16s%2Fg%2F11lh4rc85p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sop+ayam+pak+man+Klaten/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb0a40ef2353:0xe9b5479f34cf1d62!8m2!3d-7.8423445!4d110.1701442!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdXBfcmVzdGF1cmFudOABAA!16s%2Fg%2F11lh4rc85p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3335,25 +3261,24 @@
           <t>0813-9259-0924</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.6</v>
+        <v>-7.842344</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.842344</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.170144</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sop+ayam+pak+man+Klaten/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb0a40ef2353:0xe9b5479f34cf1d62!8m2!3d-7.8423445!4d110.1701442!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdXBfcmVzdGF1cmFudOABAA!16s%2Fg%2F11lh4rc85p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3368,21 +3293,20 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
+      <c r="E72" t="n">
         <v>4.3</v>
       </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bakso+%26+Mie+Ayam+Glinding+Wonogiri/@-7.6619392,109.9172074,11z/data=!4m13!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m8!1s0x2e7afafaaa9c4311:0x20f16cca480250d8!8m2!3d-7.8363249!4d110.1763463!9m1!1b1!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c2lr1bsl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3396,16 +3320,15 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Angkringan+%22AYM%22+Yu+Sum+Mak+e/@-7.6619392,109.9172074,11z/data=!4m13!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m8!1s0x2e7afade645a3d0d:0xcd7f86c9980c305!8m2!3d-7.843094!4d110.161612!9m1!1b1!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c611lhg1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3419,16 +3342,15 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Angkringan+%22AYM%22+Yu+Sum+Mak+e/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afade645a3d0d:0xcd7f86c9980c305!8m2!3d-7.843094!4d110.161612!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c611lhg1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Angkringan+%22AYM%22+Yu+Sum+Mak+e/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afade645a3d0d:0xcd7f86c9980c305!8m2!3d-7.843094!4d110.161612!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c611lhg1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3447,21 +3369,20 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="n">
+      <c r="E75" t="n">
         <v>4.3</v>
       </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Angkringan+%22AYM%22+Yu+Sum+Mak+e/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afade645a3d0d:0xcd7f86c9980c305!8m2!3d-7.843094!4d110.161612!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c611lhg1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3476,21 +3397,20 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="n">
+      <c r="E76" t="n">
         <v>4.3</v>
       </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Makan+Prasmanan+Kampung+SUPER/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afab003ecd297:0xb1d214e681184fec!8m2!3d-7.8172692!4d110.1517835!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEWJ1ZmZldF9yZXN0YXVyYW504AEA!16s%2Fg%2F11g8wc_p3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
